--- a/data/Meta Analysis Clean Coding Sheet.xlsx
+++ b/data/Meta Analysis Clean Coding Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\norms meta-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874B48F2-84E1-4398-AE4C-6C038059DA16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107C9A66-9512-4C79-BA02-909B60FBE276}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SN Only" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SN and DN" sheetId="3" r:id="rId3"/>
     <sheet name="SN, PN and DN" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2520,9 +2520,9 @@
   </sheetPr>
   <dimension ref="A1:AI904"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -37721,8 +37721,8 @@
   </sheetPr>
   <dimension ref="A1:AG77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -39018,7 +39018,9 @@
       <c r="L24" s="105" t="s">
         <v>575</v>
       </c>
-      <c r="M24" s="105"/>
+      <c r="M24" s="105">
+        <v>0</v>
+      </c>
       <c r="N24" s="108" t="s">
         <v>36</v>
       </c>
